--- a/taxonomic-classification/analysis/SampleOverview/data/RawClassificationSummary.xlsx
+++ b/taxonomic-classification/analysis/SampleOverview/data/RawClassificationSummary.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC A</t>
+          <t>MED4-Alteromonas_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -506,12 +506,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC B</t>
+          <t>MED4-Alteromonas_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -534,12 +534,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC C</t>
+          <t>MED4-Alteromonas_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -562,12 +562,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 A</t>
+          <t>MED4-Alteromonas_1stinfection_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -590,12 +590,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 B</t>
+          <t>MED4-Alteromonas_1stinfection_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -618,12 +618,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 C</t>
+          <t>MED4-Alteromonas_1stinfection_C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -646,12 +646,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 A</t>
+          <t>MED4-Alteromonas_2ndinfection_A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -674,12 +674,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 B</t>
+          <t>MED4-Alteromonas_2ndinfection_B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -702,12 +702,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 C</t>
+          <t>MED4-Alteromonas_2ndinfection_C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -730,7 +730,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MED4Xe NPC A</t>
+          <t>MED4Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MED4Xe NPC B</t>
+          <t>MED4Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MED4Xe NPC C</t>
+          <t>MED4Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -814,7 +814,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 A</t>
+          <t>MED4Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 B</t>
+          <t>MED4Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 C</t>
+          <t>MED4Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 A</t>
+          <t>MED4Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 B</t>
+          <t>MED4Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -954,7 +954,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 C</t>
+          <t>MED4Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -982,7 +982,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1094,7 +1094,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
